--- a/example_check.xlsx
+++ b/example_check.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\project\Relax\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE98DE-15A7-483F-853C-1408D8E89AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2373B9E9-3C31-46E5-BE82-90C5EE690767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="hello" sheetId="2" r:id="rId2"/>
-    <sheet name="hello1" sheetId="3" r:id="rId3"/>
-    <sheet name="hello2" sheetId="4" r:id="rId4"/>
-    <sheet name="hello3" sheetId="5" r:id="rId5"/>
-    <sheet name="hello4" sheetId="6" r:id="rId6"/>
-    <sheet name="hello5" sheetId="7" r:id="rId7"/>
-    <sheet name="hello6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -444,7 +437,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -499,88 +492,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>